--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2666802.01457077</v>
+        <v>2664549.934859561</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9017421.937161865</v>
+        <v>9017421.937161867</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658591</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>126.5388824951736</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>146.7210232472913</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.2317318494246</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>303.7604914006591</v>
+        <v>129.5398680316083</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991794</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>282.4767059583115</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091497</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766896</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>190.7368854541461</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>105.1162657551305</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1340.24392931281</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>954.4556767145662</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4334,46 +4334,46 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609173</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609173</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609173</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609173</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973.5548741173887</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>825.351820332246</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199102</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3220873375171</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4504,34 +4504,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845646</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>1155.203338947628</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477181</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609173</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609173</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.07534488301</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539439</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539439</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2741.012457539439</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527296</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248227</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>361.315157512487</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218346</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218346</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088494</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088494</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088494</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829693</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.887535471217</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.925018530805</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>790.6593199240549</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>404.8710673258107</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066533</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796419</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535339</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535339</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004714</v>
@@ -5027,19 +5027,19 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5063,28 +5063,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400753</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138452</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570315</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687887</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,22 +5522,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.95525898292</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>889.0190760550126</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>738.9024366426769</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>590.9893430602838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854707</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.396302956689</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.603723813159</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,34 +6953,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
@@ -7418,7 +7418,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-7.646612342040956e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.487027838238567e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392193823</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>61.40075786968191</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>40.30478226780077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26314,43 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26366,16 +26366,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813233</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.1230581323</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="F4" t="n">
-        <v>10557.08828678115</v>
-      </c>
       <c r="G4" t="n">
-        <v>10557.08828678113</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26454,7 +26454,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869589.3934556923</v>
+        <v>-869589.3934556921</v>
       </c>
       <c r="C6" t="n">
+        <v>459155.352271901</v>
+      </c>
+      <c r="D6" t="n">
         <v>459155.3522719009</v>
       </c>
-      <c r="D6" t="n">
-        <v>459155.3522719014</v>
-      </c>
       <c r="E6" t="n">
-        <v>208625.1998339614</v>
+        <v>208590.4619085254</v>
       </c>
       <c r="F6" t="n">
-        <v>534037.6616413166</v>
+        <v>534002.9237158814</v>
       </c>
       <c r="G6" t="n">
-        <v>534037.6616413172</v>
+        <v>534002.9237158808</v>
       </c>
       <c r="H6" t="n">
-        <v>534037.6616413168</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="I6" t="n">
-        <v>534037.6616413166</v>
+        <v>534002.9237158806</v>
       </c>
       <c r="J6" t="n">
-        <v>316506.4592440393</v>
+        <v>316471.7213186031</v>
       </c>
       <c r="K6" t="n">
-        <v>534037.661641317</v>
+        <v>534002.9237158808</v>
       </c>
       <c r="L6" t="n">
-        <v>534037.6616413168</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="M6" t="n">
-        <v>448982.6337058049</v>
+        <v>448947.8957803692</v>
       </c>
       <c r="N6" t="n">
-        <v>534037.6616413166</v>
+        <v>534002.9237158808</v>
       </c>
       <c r="O6" t="n">
-        <v>534037.6616413165</v>
+        <v>534002.923715881</v>
       </c>
       <c r="P6" t="n">
-        <v>534037.6616413166</v>
+        <v>534002.923715881</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.9183408758524</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>222.7020862222394</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20.52579785133653</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>27.98010635618829</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.47744725539445</v>
+        <v>256.6980706244453</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>10.1238813476738</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356949</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>124.3993397834</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047043</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.310439533993772e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31051,31 +31051,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31124,43 +31124,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,19 +31203,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31230,13 +31230,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,46 +31434,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,28 +34699,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572999023</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627482998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
